--- a/dist/CARD USER I.D LIST 2.xlsx
+++ b/dist/CARD USER I.D LIST 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\josom\exegui_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37A4BF-6BD6-4273-92E9-EFD22236715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B5AD8-59EC-4FD9-A0CE-528D644B9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="945" windowWidth="21435" windowHeight="14745" tabRatio="531" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1455" windowWidth="21435" windowHeight="14745" tabRatio="531" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6802" uniqueCount="1441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6803" uniqueCount="1442">
   <si>
     <t>Card N°.</t>
   </si>
@@ -4347,6 +4347,9 @@
   </si>
   <si>
     <t>HOTEL SECURITY (TRAFFIC)</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
 </sst>
 </file>
@@ -30376,10 +30379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD48ACC-20CB-4805-A8E3-95FADC56D8B5}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30412,7 +30415,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>1441</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -30429,7 +30432,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1390</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>7</v>
@@ -30446,7 +30449,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1386</v>
+        <v>1390</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -30463,7 +30466,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -30480,7 +30483,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -30497,7 +30500,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1424</v>
+        <v>1391</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -30514,69 +30517,69 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1340</v>
+        <v>1423</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1382</v>
+        <v>1340</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1426</v>
+        <v>1382</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -30593,41 +30596,41 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1344</v>
+        <v>1427</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>1344</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -30644,75 +30647,75 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1381</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1440</v>
+        <v>1385</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1421</v>
+        <v>1439</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -30729,132 +30732,149 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1383</v>
+        <v>1421</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>19</v>
-      </c>
-      <c r="D22">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>7</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1388</v>
+        <v>1429</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1420</v>
+        <v>1388</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1387</v>
-      </c>
-      <c r="B26">
-        <v>12</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1430</v>
+        <v>1387</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1353</v>
+        <v>1430</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>19</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1431</v>
+        <v>1353</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>1433</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>19</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>19</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>7</v>
       </c>
     </row>

--- a/dist/CARD USER I.D LIST 2.xlsx
+++ b/dist/CARD USER I.D LIST 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\josom\exegui_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B5AD8-59EC-4FD9-A0CE-528D644B9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EAA49B-C87C-4CB7-91BB-075BEB701A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1455" windowWidth="21435" windowHeight="14745" tabRatio="531" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1215" yWindow="1065" windowWidth="26670" windowHeight="14745" tabRatio="531" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30381,8 +30381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD48ACC-20CB-4805-A8E3-95FADC56D8B5}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30751,6 +30751,18 @@
       <c r="A22" t="s">
         <v>1383</v>
       </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -30806,6 +30818,18 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1420</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
